--- a/Code/Results/Cases/Case_2_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.118039432931056</v>
+        <v>0.6313203717040778</v>
       </c>
       <c r="C2">
-        <v>0.1259466123578874</v>
+        <v>0.298564395615148</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1545880807551399</v>
+        <v>0.2776979355111315</v>
       </c>
       <c r="F2">
-        <v>1.02230928319122</v>
+        <v>1.886419488441902</v>
       </c>
       <c r="G2">
-        <v>0.3130907023663454</v>
+        <v>0.6396534143365358</v>
       </c>
       <c r="H2">
-        <v>0.2935306501845787</v>
+        <v>0.7680410200398313</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05912922459869918</v>
+        <v>0.04602985507985835</v>
       </c>
       <c r="K2">
-        <v>0.7946111234736577</v>
+        <v>0.2622393503981471</v>
       </c>
       <c r="L2">
-        <v>0.4140758198276018</v>
+        <v>0.4667620490305353</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8207083180300536</v>
+        <v>1.657807643039227</v>
       </c>
       <c r="O2">
-        <v>1.225987464863593</v>
+        <v>2.804474144802967</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9742041326565243</v>
+        <v>0.590842794766985</v>
       </c>
       <c r="C3">
-        <v>0.1294238991706713</v>
+        <v>0.3005191531905909</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1441304850872491</v>
+        <v>0.2764103369528108</v>
       </c>
       <c r="F3">
-        <v>0.9709366819682685</v>
+        <v>1.885398137126714</v>
       </c>
       <c r="G3">
-        <v>0.3091093777184994</v>
+        <v>0.643612652319618</v>
       </c>
       <c r="H3">
-        <v>0.2968740347552483</v>
+        <v>0.7732198337806011</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05482063237885626</v>
+        <v>0.04455423301908468</v>
       </c>
       <c r="K3">
-        <v>0.6932391659920967</v>
+        <v>0.2310627759570707</v>
       </c>
       <c r="L3">
-        <v>0.3696420781501786</v>
+        <v>0.4567322239196159</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8546369642435998</v>
+        <v>1.672942198728789</v>
       </c>
       <c r="O3">
-        <v>1.22422694656693</v>
+        <v>2.82348138757159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8860972838909618</v>
+        <v>0.5661547638283082</v>
       </c>
       <c r="C4">
-        <v>0.1316548138702971</v>
+        <v>0.3017852055618193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1378618097640931</v>
+        <v>0.2757278429815209</v>
       </c>
       <c r="F4">
-        <v>0.9408708583675605</v>
+        <v>1.885664671379807</v>
       </c>
       <c r="G4">
-        <v>0.3073279523945729</v>
+        <v>0.6463966460535389</v>
       </c>
       <c r="H4">
-        <v>0.2993502484401702</v>
+        <v>0.7766748148483202</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05216738155581169</v>
+        <v>0.04364000301762516</v>
       </c>
       <c r="K4">
-        <v>0.6309531501161842</v>
+        <v>0.2118920633115664</v>
       </c>
       <c r="L4">
-        <v>0.3426243796070025</v>
+        <v>0.4507589251714137</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8764087884917355</v>
+        <v>1.6827377900551</v>
       </c>
       <c r="O4">
-        <v>1.225430015989801</v>
+        <v>2.836468379794894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8502356432604472</v>
+        <v>0.5561365717192643</v>
       </c>
       <c r="C5">
-        <v>0.1325878483704197</v>
+        <v>0.3023177109638331</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1353438970302427</v>
+        <v>0.2754769834422461</v>
       </c>
       <c r="F5">
-        <v>0.9289740168208596</v>
+        <v>1.885998330104819</v>
       </c>
       <c r="G5">
-        <v>0.3067619252925198</v>
+        <v>0.64761992367891</v>
       </c>
       <c r="H5">
-        <v>0.3004628271537086</v>
+        <v>0.7781520178016166</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05108401973168952</v>
+        <v>0.04326540162008641</v>
       </c>
       <c r="K5">
-        <v>0.6055546035497485</v>
+        <v>0.2040732881050076</v>
       </c>
       <c r="L5">
-        <v>0.3316762705192673</v>
+        <v>0.4483715352459114</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8855123355882917</v>
+        <v>1.686856095453177</v>
       </c>
       <c r="O5">
-        <v>1.22647393370417</v>
+        <v>2.842091900769333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8442831412158398</v>
+        <v>0.5544756417487804</v>
       </c>
       <c r="C6">
-        <v>0.1327442174216538</v>
+        <v>0.3024071351915172</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.13492796370031</v>
+        <v>0.2754369773474536</v>
       </c>
       <c r="F6">
-        <v>0.9270195488330728</v>
+        <v>1.886067335638792</v>
       </c>
       <c r="G6">
-        <v>0.306677401257808</v>
+        <v>0.6478284102833385</v>
       </c>
       <c r="H6">
-        <v>0.3006537371652485</v>
+        <v>0.7784014922319997</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05090399364575404</v>
+        <v>0.04320307624668018</v>
       </c>
       <c r="K6">
-        <v>0.6013360401997261</v>
+        <v>0.2027746061643967</v>
       </c>
       <c r="L6">
-        <v>0.3298619441684139</v>
+        <v>0.4479779434142728</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8870378066451767</v>
+        <v>1.687547580395217</v>
       </c>
       <c r="O6">
-        <v>1.22668012658815</v>
+        <v>2.843045692079329</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8856134813522942</v>
+        <v>0.5660194823288691</v>
       </c>
       <c r="C7">
-        <v>0.1316673004906348</v>
+        <v>0.3017923199526251</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1378277061958322</v>
+        <v>0.2757243493109627</v>
       </c>
       <c r="F7">
-        <v>0.9407089960422255</v>
+        <v>1.88566825958749</v>
       </c>
       <c r="G7">
-        <v>0.3073196800703784</v>
+        <v>0.6464127841311438</v>
       </c>
       <c r="H7">
-        <v>0.2993648378059319</v>
+        <v>0.7766944563505263</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05215277987183597</v>
+        <v>0.04363495927362493</v>
       </c>
       <c r="K7">
-        <v>0.6306106903991093</v>
+        <v>0.2117866424107291</v>
       </c>
       <c r="L7">
-        <v>0.3424764854002831</v>
+        <v>0.4507265382701178</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8765306316827566</v>
+        <v>1.682792818595328</v>
       </c>
       <c r="O7">
-        <v>1.2254418795888</v>
+        <v>2.836542879245272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.068395602164998</v>
+        <v>0.6173298475558795</v>
       </c>
       <c r="C8">
-        <v>0.1271255769010686</v>
+        <v>0.2992247507552204</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1509496481265664</v>
+        <v>0.2772315834021875</v>
       </c>
       <c r="F8">
-        <v>1.004279435807206</v>
+        <v>1.88588204235154</v>
       </c>
       <c r="G8">
-        <v>0.3115761095142346</v>
+        <v>0.6409452995607126</v>
       </c>
       <c r="H8">
-        <v>0.294593762153923</v>
+        <v>0.7697696098423421</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05764511426325214</v>
+        <v>0.04552276933087285</v>
       </c>
       <c r="K8">
-        <v>0.7596635329293377</v>
+        <v>0.251495822350023</v>
       </c>
       <c r="L8">
-        <v>0.3986971593953825</v>
+        <v>0.463265500010877</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8322089195856073</v>
+        <v>1.662921695922943</v>
       </c>
       <c r="O8">
-        <v>1.224893666268301</v>
+        <v>2.81075471555063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.428972290919717</v>
+        <v>0.7192315344318843</v>
       </c>
       <c r="C9">
-        <v>0.1189880136602843</v>
+        <v>0.2947107695615294</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1779711059655007</v>
+        <v>0.2810418237949861</v>
       </c>
       <c r="F9">
-        <v>1.141433401818631</v>
+        <v>1.89337970033138</v>
       </c>
       <c r="G9">
-        <v>0.3255073486074949</v>
+        <v>0.6330243802759483</v>
       </c>
       <c r="H9">
-        <v>0.2887364556329217</v>
+        <v>0.7583700014021062</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06836343795144018</v>
+        <v>0.04915926357849898</v>
       </c>
       <c r="K9">
-        <v>1.01267413306843</v>
+        <v>0.3291222974670802</v>
       </c>
       <c r="L9">
-        <v>0.5112777234075025</v>
+        <v>0.4893135578579404</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7529767766854683</v>
+        <v>1.62794166558766</v>
       </c>
       <c r="O9">
-        <v>1.242918600114578</v>
+        <v>2.770622740548532</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.695932792057903</v>
+        <v>0.7948478832560113</v>
       </c>
       <c r="C10">
-        <v>0.1134894451223527</v>
+        <v>0.2917101544301692</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1987292527998221</v>
+        <v>0.2843585320033384</v>
       </c>
       <c r="F10">
-        <v>1.250950476573209</v>
+        <v>1.903190160455793</v>
       </c>
       <c r="G10">
-        <v>0.3396183368704939</v>
+        <v>0.6289126755423098</v>
       </c>
       <c r="H10">
-        <v>0.2867696298874307</v>
+        <v>0.7513192384409848</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07622078851196079</v>
+        <v>0.05179062657331457</v>
       </c>
       <c r="K10">
-        <v>1.198955999563623</v>
+        <v>0.3859853364062928</v>
       </c>
       <c r="L10">
-        <v>0.595757454290009</v>
+        <v>0.5093307200364734</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6997768982004509</v>
+        <v>1.604667426207982</v>
       </c>
       <c r="O10">
-        <v>1.26923175449059</v>
+        <v>2.747493155325188</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.817999876059417</v>
+        <v>0.8294039500244423</v>
       </c>
       <c r="C11">
-        <v>0.111094854265247</v>
+        <v>0.2904132837395954</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2083972980015858</v>
+        <v>0.2859789839355003</v>
       </c>
       <c r="F11">
-        <v>1.302938512264433</v>
+        <v>1.908584701588723</v>
       </c>
       <c r="G11">
-        <v>0.3469897567819444</v>
+        <v>0.6274131013666491</v>
       </c>
       <c r="H11">
-        <v>0.2864299789161748</v>
+        <v>0.7483983444640216</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07979489437811083</v>
+        <v>0.0529788526689785</v>
       </c>
       <c r="K11">
-        <v>1.283889776632208</v>
+        <v>0.4118129564347157</v>
       </c>
       <c r="L11">
-        <v>0.6346544943802428</v>
+        <v>0.5186260866237689</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6767399875322937</v>
+        <v>1.594604993209554</v>
       </c>
       <c r="O11">
-        <v>1.284374588440386</v>
+        <v>2.738349292313217</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.864328513414051</v>
+        <v>0.8425114099506743</v>
       </c>
       <c r="C12">
-        <v>0.110203668647229</v>
+        <v>0.2899319610645783</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.212093128010018</v>
+        <v>0.2866085904902249</v>
       </c>
       <c r="F12">
-        <v>1.322960116183765</v>
+        <v>1.910761171573057</v>
       </c>
       <c r="G12">
-        <v>0.3499278127378602</v>
+        <v>0.6268985832736718</v>
       </c>
       <c r="H12">
-        <v>0.2863854191577815</v>
+        <v>0.7473334088479078</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08114855956593203</v>
+        <v>0.05342752552846974</v>
       </c>
       <c r="K12">
-        <v>1.316088626671188</v>
+        <v>0.4215870292771342</v>
       </c>
       <c r="L12">
-        <v>0.6494579474623094</v>
+        <v>0.5221730256412656</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6681908034977297</v>
+        <v>1.590870071729842</v>
       </c>
       <c r="O12">
-        <v>1.290594615232322</v>
+        <v>2.735084749000293</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.85434592348247</v>
+        <v>0.839687526939116</v>
       </c>
       <c r="C13">
-        <v>0.1103949038567902</v>
+        <v>0.290035188157165</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2112955797870555</v>
+        <v>0.2864722841773428</v>
       </c>
       <c r="F13">
-        <v>1.318632830038013</v>
+        <v>1.910286489490119</v>
       </c>
       <c r="G13">
-        <v>0.3492883660044441</v>
+        <v>0.6270070215901171</v>
       </c>
       <c r="H13">
-        <v>0.2863912070874477</v>
+        <v>0.7475609328624415</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08085700900497983</v>
+        <v>0.05333095313152825</v>
       </c>
       <c r="K13">
-        <v>1.309152273419699</v>
+        <v>0.4194822966795186</v>
       </c>
       <c r="L13">
-        <v>0.6462663544123046</v>
+        <v>0.521407932801182</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6700241509961344</v>
+        <v>1.591671095995576</v>
       </c>
       <c r="O13">
-        <v>1.289232927721486</v>
+        <v>2.735779020585625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.821809180163427</v>
+        <v>0.8304818761468198</v>
       </c>
       <c r="C14">
-        <v>0.1110212219208653</v>
+        <v>0.2903734892699514</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2087006455148526</v>
+        <v>0.2860304623139314</v>
       </c>
       <c r="F14">
-        <v>1.30457885336395</v>
+        <v>1.90876108380337</v>
       </c>
       <c r="G14">
-        <v>0.3472284753602395</v>
+        <v>0.6273697026297782</v>
       </c>
       <c r="H14">
-        <v>0.2864246030901469</v>
+        <v>0.7483099073319863</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07990625507589044</v>
+        <v>0.05301579106322407</v>
       </c>
       <c r="K14">
-        <v>1.286538017706107</v>
+        <v>0.4126172046170211</v>
       </c>
       <c r="L14">
-        <v>0.63587085968841</v>
+        <v>0.5189173560866607</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6760331042782717</v>
+        <v>1.594296205819028</v>
       </c>
       <c r="O14">
-        <v>1.284876402975954</v>
+        <v>2.738076747951794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.801893540381826</v>
+        <v>0.8248459661049878</v>
       </c>
       <c r="C15">
-        <v>0.1114068980663463</v>
+        <v>0.2905819806969241</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2071157722449399</v>
+        <v>0.2857619118900416</v>
       </c>
       <c r="F15">
-        <v>1.296014704555745</v>
+        <v>1.90784412804355</v>
       </c>
       <c r="G15">
-        <v>0.3459861307912462</v>
+        <v>0.6275988016861476</v>
       </c>
       <c r="H15">
-        <v>0.2864561362673967</v>
+        <v>0.7487740321617693</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07932392873463812</v>
+        <v>0.05282257763084175</v>
       </c>
       <c r="K15">
-        <v>1.272691118900184</v>
+        <v>0.4084113015341018</v>
       </c>
       <c r="L15">
-        <v>0.629513165508925</v>
+        <v>0.5173953125489845</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6797366880112818</v>
+        <v>1.595913993907374</v>
       </c>
       <c r="O15">
-        <v>1.282272072761515</v>
+        <v>2.739509959841072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.687969227665292</v>
+        <v>0.7925926645926324</v>
       </c>
       <c r="C16">
-        <v>0.1136481058289909</v>
+        <v>0.2917962769208717</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1981021530199882</v>
+        <v>0.2842548717455458</v>
       </c>
       <c r="F16">
-        <v>1.247598507395907</v>
+        <v>1.902856336931762</v>
       </c>
       <c r="G16">
-        <v>0.3391565774102929</v>
+        <v>0.6290181396700589</v>
       </c>
       <c r="H16">
-        <v>0.2868033529868441</v>
+        <v>0.7515158864126903</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07598722960926807</v>
+        <v>0.05171279470893353</v>
       </c>
       <c r="K16">
-        <v>1.193409977571065</v>
+        <v>0.3842965927626949</v>
       </c>
       <c r="L16">
-        <v>0.5932254113464381</v>
+        <v>0.5087270362835596</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7013064273413327</v>
+        <v>1.605335595995463</v>
       </c>
       <c r="O16">
-        <v>1.268308463436512</v>
+        <v>2.748118446514752</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.618250585175502</v>
+        <v>0.7728461121099315</v>
       </c>
       <c r="C17">
-        <v>0.1150505234317603</v>
+        <v>0.2925586407884762</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1926318880160807</v>
+        <v>0.2833588940916485</v>
       </c>
       <c r="F17">
-        <v>1.218468055596304</v>
+        <v>1.900034906335961</v>
       </c>
       <c r="G17">
-        <v>0.3352175042086714</v>
+        <v>0.629983850302537</v>
       </c>
       <c r="H17">
-        <v>0.287161463342521</v>
+        <v>0.753271270741088</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07394039359281379</v>
+        <v>0.05102971369637999</v>
       </c>
       <c r="K17">
-        <v>1.144828906739235</v>
+        <v>0.3694924268644115</v>
       </c>
       <c r="L17">
-        <v>0.5710883564485982</v>
+        <v>0.5034576708196568</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.714841753564464</v>
+        <v>1.611249935324924</v>
       </c>
       <c r="O17">
-        <v>1.260575334851779</v>
+        <v>2.753752315789527</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.57820820568341</v>
+        <v>0.7615033230237316</v>
       </c>
       <c r="C18">
-        <v>0.1158671881461868</v>
+        <v>0.2930035457948303</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1895065689187589</v>
+        <v>0.2828540666894241</v>
       </c>
       <c r="F18">
-        <v>1.201915607483286</v>
+        <v>1.898499809700496</v>
       </c>
       <c r="G18">
-        <v>0.3330408692381965</v>
+        <v>0.6305742082067454</v>
       </c>
       <c r="H18">
-        <v>0.2874194160143304</v>
+        <v>0.7543078948035316</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07276306817445999</v>
+        <v>0.05063599690537757</v>
       </c>
       <c r="K18">
-        <v>1.116904003837448</v>
+        <v>0.3609737639060597</v>
       </c>
       <c r="L18">
-        <v>0.5583992085031468</v>
+        <v>0.5004447194628767</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7227360314184601</v>
+        <v>1.61470113554633</v>
       </c>
       <c r="O18">
-        <v>1.256424219103238</v>
+        <v>2.757122469049534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.564660067530212</v>
+        <v>0.7576654359591828</v>
       </c>
       <c r="C19">
-        <v>0.1161454123277936</v>
+        <v>0.2931552851830972</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1884519314633835</v>
+        <v>0.2826849492645209</v>
       </c>
       <c r="F19">
-        <v>1.196345351465581</v>
+        <v>1.897995126867073</v>
       </c>
       <c r="G19">
-        <v>0.3323188995685413</v>
+        <v>0.6307800882336352</v>
       </c>
       <c r="H19">
-        <v>0.2875155563662872</v>
+        <v>0.7546635124349592</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07236443144746474</v>
+        <v>0.05050254973120261</v>
       </c>
       <c r="K19">
-        <v>1.107451892958835</v>
+        <v>0.3580888735814654</v>
       </c>
       <c r="L19">
-        <v>0.5541101500058971</v>
+        <v>0.4994276592311735</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7254274317912248</v>
+        <v>1.615878142418573</v>
       </c>
       <c r="O19">
-        <v>1.255068823205477</v>
+        <v>2.758285824338316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.625666154826888</v>
+        <v>0.7749466299238748</v>
       </c>
       <c r="C20">
-        <v>0.1149001937449268</v>
+        <v>0.2924768222438718</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1932120134138557</v>
+        <v>0.2834531847381498</v>
       </c>
       <c r="F20">
-        <v>1.221547908940281</v>
+        <v>1.900326176406878</v>
       </c>
       <c r="G20">
-        <v>0.3356275438680285</v>
+        <v>0.6298774359807098</v>
       </c>
       <c r="H20">
-        <v>0.287117932545236</v>
+        <v>0.7530816158674085</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07415828500493404</v>
+        <v>0.05110251452224901</v>
       </c>
       <c r="K20">
-        <v>1.149998558973977</v>
+        <v>0.3710687425792685</v>
       </c>
       <c r="L20">
-        <v>0.573440333217377</v>
+        <v>0.504016758409449</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7133895523255731</v>
+        <v>1.610615228207127</v>
       </c>
       <c r="O20">
-        <v>1.261367616274143</v>
+        <v>2.753139157988159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.831363053987445</v>
+        <v>0.8331852134424196</v>
       </c>
       <c r="C21">
-        <v>0.1108368319027382</v>
+        <v>0.290273856940904</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2094618777440971</v>
+        <v>0.2861598031491894</v>
       </c>
       <c r="F21">
-        <v>1.308697568060211</v>
+        <v>1.909205506984819</v>
       </c>
       <c r="G21">
-        <v>0.3478294544813565</v>
+        <v>0.6272617267686016</v>
       </c>
       <c r="H21">
-        <v>0.2864124774722541</v>
+        <v>0.7480887992246466</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08018550616209552</v>
+        <v>0.05310839675525614</v>
       </c>
       <c r="K21">
-        <v>1.29317931775276</v>
+        <v>0.4146338238234364</v>
       </c>
       <c r="L21">
-        <v>0.6389222036155502</v>
+        <v>0.5196481685273682</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6742633381217793</v>
+        <v>1.593523098356322</v>
       </c>
       <c r="O21">
-        <v>1.286142592371391</v>
+        <v>2.737396475809646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.966414330135791</v>
+        <v>0.8713743192980701</v>
       </c>
       <c r="C22">
-        <v>0.1082722045556892</v>
+        <v>0.2888910526964752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2202858709941609</v>
+        <v>0.2880218209114318</v>
       </c>
       <c r="F22">
-        <v>1.367618469493308</v>
+        <v>1.915787676560171</v>
       </c>
       <c r="G22">
-        <v>0.3566638900165344</v>
+        <v>0.625863108603852</v>
       </c>
       <c r="H22">
-        <v>0.2864435360621371</v>
+        <v>0.7450654935597356</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08412611118526314</v>
+        <v>0.05441187246029244</v>
       </c>
       <c r="K22">
-        <v>1.386972017839639</v>
+        <v>0.4430692107370646</v>
       </c>
       <c r="L22">
-        <v>0.6821531504935479</v>
+        <v>0.5300213699196377</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.649712147138537</v>
+        <v>1.582792492669604</v>
       </c>
       <c r="O22">
-        <v>1.305180870495548</v>
+        <v>2.728261999518764</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.894273452278128</v>
+        <v>0.850980756390328</v>
       </c>
       <c r="C23">
-        <v>0.1096325829453084</v>
+        <v>0.2896238766456829</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2144894310155294</v>
+        <v>0.2870195362934211</v>
       </c>
       <c r="F23">
-        <v>1.335983617148358</v>
+        <v>1.912203470113951</v>
       </c>
       <c r="G23">
-        <v>0.3518667479996083</v>
+        <v>0.6265811273874675</v>
       </c>
       <c r="H23">
-        <v>0.2863804619346553</v>
+        <v>0.7466571676208389</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08202271065490407</v>
+        <v>0.05371687374413625</v>
       </c>
       <c r="K23">
-        <v>1.336890380519208</v>
+        <v>0.4278962796825283</v>
       </c>
       <c r="L23">
-        <v>0.659037818355884</v>
+        <v>0.5244707015349377</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6627198206562319</v>
+        <v>1.588479353439929</v>
       </c>
       <c r="O23">
-        <v>1.294749117081579</v>
+        <v>2.733031658603977</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.622313452917609</v>
+        <v>0.7739969553310004</v>
       </c>
       <c r="C24">
-        <v>0.1149681254328785</v>
+        <v>0.2925137918109408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1929496778223694</v>
+        <v>0.2834105239035765</v>
       </c>
       <c r="F24">
-        <v>1.220154901477272</v>
+        <v>1.900194222246512</v>
       </c>
       <c r="G24">
-        <v>0.3354418915953659</v>
+        <v>0.62992543638196</v>
       </c>
       <c r="H24">
-        <v>0.2871374509491673</v>
+        <v>0.7531672733878381</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0740597780993113</v>
+        <v>0.05106960439641739</v>
       </c>
       <c r="K24">
-        <v>1.147661344253493</v>
+        <v>0.3703561137205043</v>
       </c>
       <c r="L24">
-        <v>0.5723768874831308</v>
+        <v>0.5037639435674635</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7140457421879738</v>
+        <v>1.610902020532876</v>
       </c>
       <c r="O24">
-        <v>1.261008509933959</v>
+        <v>2.753415958047739</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.331123834040881</v>
+        <v>0.6915305162949323</v>
       </c>
       <c r="C25">
-        <v>0.1211059863923012</v>
+        <v>0.2958763316969626</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1705111008923232</v>
+        <v>0.279919941963378</v>
       </c>
       <c r="F25">
-        <v>1.102878805895358</v>
+        <v>1.890594958076107</v>
       </c>
       <c r="G25">
-        <v>0.3210936241632609</v>
+        <v>0.6348673164085739</v>
       </c>
       <c r="H25">
-        <v>0.2899261104900361</v>
+        <v>0.7612209761584907</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06546798552179922</v>
+        <v>0.04818255231369406</v>
       </c>
       <c r="K25">
-        <v>0.9441916636276915</v>
+        <v>0.3081504693129489</v>
       </c>
       <c r="L25">
-        <v>0.4805375714983739</v>
+        <v>0.4821116736014375</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7735558993748874</v>
+        <v>1.636978373174564</v>
       </c>
       <c r="O25">
-        <v>1.235855056469134</v>
+        <v>2.780362838313096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6313203717040778</v>
+        <v>1.118039432931027</v>
       </c>
       <c r="C2">
-        <v>0.298564395615148</v>
+        <v>0.125946612357585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2776979355111315</v>
+        <v>0.1545880807551399</v>
       </c>
       <c r="F2">
-        <v>1.886419488441902</v>
+        <v>1.022309283191234</v>
       </c>
       <c r="G2">
-        <v>0.6396534143365358</v>
+        <v>0.3130907023662672</v>
       </c>
       <c r="H2">
-        <v>0.7680410200398313</v>
+        <v>0.2935306501845787</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04602985507985835</v>
+        <v>0.05912922459857128</v>
       </c>
       <c r="K2">
-        <v>0.2622393503981471</v>
+        <v>0.7946111234736577</v>
       </c>
       <c r="L2">
-        <v>0.4667620490305353</v>
+        <v>0.4140758198277155</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.657807643039227</v>
+        <v>0.8207083180300465</v>
       </c>
       <c r="O2">
-        <v>2.804474144802967</v>
+        <v>1.225987464863593</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.590842794766985</v>
+        <v>0.9742041326565243</v>
       </c>
       <c r="C3">
-        <v>0.3005191531905909</v>
+        <v>0.1294238991704413</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2764103369528108</v>
+        <v>0.1441304850872633</v>
       </c>
       <c r="F3">
-        <v>1.885398137126714</v>
+        <v>0.9709366819682401</v>
       </c>
       <c r="G3">
-        <v>0.643612652319618</v>
+        <v>0.3091093777185563</v>
       </c>
       <c r="H3">
-        <v>0.7732198337806011</v>
+        <v>0.2968740347552483</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04455423301908468</v>
+        <v>0.05482063237879942</v>
       </c>
       <c r="K3">
-        <v>0.2310627759570707</v>
+        <v>0.693239165991983</v>
       </c>
       <c r="L3">
-        <v>0.4567322239196159</v>
+        <v>0.3696420781502781</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.672942198728789</v>
+        <v>0.854636964243598</v>
       </c>
       <c r="O3">
-        <v>2.82348138757159</v>
+        <v>1.22422694656693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5661547638283082</v>
+        <v>0.8860972838910754</v>
       </c>
       <c r="C4">
-        <v>0.3017852055618193</v>
+        <v>0.1316548138702998</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2757278429815209</v>
+        <v>0.1378618097640931</v>
       </c>
       <c r="F4">
-        <v>1.885664671379807</v>
+        <v>0.9408708583675391</v>
       </c>
       <c r="G4">
-        <v>0.6463966460535389</v>
+        <v>0.307327952394516</v>
       </c>
       <c r="H4">
-        <v>0.7766748148483202</v>
+        <v>0.2993502484401702</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04364000301762516</v>
+        <v>0.05216738155575129</v>
       </c>
       <c r="K4">
-        <v>0.2118920633115664</v>
+        <v>0.6309531501160563</v>
       </c>
       <c r="L4">
-        <v>0.4507589251714137</v>
+        <v>0.3426243796070736</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.6827377900551</v>
+        <v>0.8764087884916769</v>
       </c>
       <c r="O4">
-        <v>2.836468379794894</v>
+        <v>1.225430015989787</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5561365717192643</v>
+        <v>0.8502356432602198</v>
       </c>
       <c r="C5">
-        <v>0.3023177109638331</v>
+        <v>0.1325878483701111</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2754769834422461</v>
+        <v>0.1353438970302605</v>
       </c>
       <c r="F5">
-        <v>1.885998330104819</v>
+        <v>0.9289740168208169</v>
       </c>
       <c r="G5">
-        <v>0.64761992367891</v>
+        <v>0.3067619252925908</v>
       </c>
       <c r="H5">
-        <v>0.7781520178016166</v>
+        <v>0.3004628271535879</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04326540162008641</v>
+        <v>0.0510840197317215</v>
       </c>
       <c r="K5">
-        <v>0.2040732881050076</v>
+        <v>0.6055546035498196</v>
       </c>
       <c r="L5">
-        <v>0.4483715352459114</v>
+        <v>0.3316762705191536</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.686856095453177</v>
+        <v>0.8855123355882988</v>
       </c>
       <c r="O5">
-        <v>2.842091900769333</v>
+        <v>1.226473933704099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5544756417487804</v>
+        <v>0.8442831412158398</v>
       </c>
       <c r="C6">
-        <v>0.3024071351915172</v>
+        <v>0.132744217421938</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2754369773474536</v>
+        <v>0.1349279637002851</v>
       </c>
       <c r="F6">
-        <v>1.886067335638792</v>
+        <v>0.9270195488330799</v>
       </c>
       <c r="G6">
-        <v>0.6478284102833385</v>
+        <v>0.3066774012579501</v>
       </c>
       <c r="H6">
-        <v>0.7784014922319997</v>
+        <v>0.3006537371653835</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04320307624668018</v>
+        <v>0.05090399364575759</v>
       </c>
       <c r="K6">
-        <v>0.2027746061643967</v>
+        <v>0.6013360401998398</v>
       </c>
       <c r="L6">
-        <v>0.4479779434142728</v>
+        <v>0.3298619441683854</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.687547580395217</v>
+        <v>0.8870378066451892</v>
       </c>
       <c r="O6">
-        <v>2.843045692079329</v>
+        <v>1.226680126588192</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5660194823288691</v>
+        <v>0.8856134813523795</v>
       </c>
       <c r="C7">
-        <v>0.3017923199526251</v>
+        <v>0.1316673004911109</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2757243493109627</v>
+        <v>0.1378277061958642</v>
       </c>
       <c r="F7">
-        <v>1.88566825958749</v>
+        <v>0.9407089960422539</v>
       </c>
       <c r="G7">
-        <v>0.6464127841311438</v>
+        <v>0.3073196800703641</v>
       </c>
       <c r="H7">
-        <v>0.7766944563505263</v>
+        <v>0.2993648378059319</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04363495927362493</v>
+        <v>0.05215277987182887</v>
       </c>
       <c r="K7">
-        <v>0.2117866424107291</v>
+        <v>0.6306106903990667</v>
       </c>
       <c r="L7">
-        <v>0.4507265382701178</v>
+        <v>0.3424764854002404</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.682792818595328</v>
+        <v>0.8765306316826926</v>
       </c>
       <c r="O7">
-        <v>2.836542879245272</v>
+        <v>1.225441879588757</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6173298475558795</v>
+        <v>1.068395602164998</v>
       </c>
       <c r="C8">
-        <v>0.2992247507552204</v>
+        <v>0.1271255769010562</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2772315834021875</v>
+        <v>0.1509496481265948</v>
       </c>
       <c r="F8">
-        <v>1.88588204235154</v>
+        <v>1.004279435807192</v>
       </c>
       <c r="G8">
-        <v>0.6409452995607126</v>
+        <v>0.3115761095142275</v>
       </c>
       <c r="H8">
-        <v>0.7697696098423421</v>
+        <v>0.2945937621540295</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04552276933087285</v>
+        <v>0.05764511426328056</v>
       </c>
       <c r="K8">
-        <v>0.251495822350023</v>
+        <v>0.7596635329292667</v>
       </c>
       <c r="L8">
-        <v>0.463265500010877</v>
+        <v>0.3986971593954536</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.662921695922943</v>
+        <v>0.8322089195855842</v>
       </c>
       <c r="O8">
-        <v>2.81075471555063</v>
+        <v>1.224893666268201</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7192315344318843</v>
+        <v>1.428972290919802</v>
       </c>
       <c r="C9">
-        <v>0.2947107695615294</v>
+        <v>0.1189880136604486</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2810418237949861</v>
+        <v>0.1779711059654865</v>
       </c>
       <c r="F9">
-        <v>1.89337970033138</v>
+        <v>1.141433401818617</v>
       </c>
       <c r="G9">
-        <v>0.6330243802759483</v>
+        <v>0.3255073486074949</v>
       </c>
       <c r="H9">
-        <v>0.7583700014021062</v>
+        <v>0.288736455632808</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04915926357849898</v>
+        <v>0.06836343795153255</v>
       </c>
       <c r="K9">
-        <v>0.3291222974670802</v>
+        <v>1.012674133068487</v>
       </c>
       <c r="L9">
-        <v>0.4893135578579404</v>
+        <v>0.5112777234074457</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.62794166558766</v>
+        <v>0.7529767766854185</v>
       </c>
       <c r="O9">
-        <v>2.770622740548532</v>
+        <v>1.242918600114649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7948478832560113</v>
+        <v>1.695932792057931</v>
       </c>
       <c r="C10">
-        <v>0.2917101544301692</v>
+        <v>0.1134894451223474</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2843585320033384</v>
+        <v>0.1987292527998079</v>
       </c>
       <c r="F10">
-        <v>1.903190160455793</v>
+        <v>1.250950476573209</v>
       </c>
       <c r="G10">
-        <v>0.6289126755423098</v>
+        <v>0.3396183368705223</v>
       </c>
       <c r="H10">
-        <v>0.7513192384409848</v>
+        <v>0.2867696298874236</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05179062657331457</v>
+        <v>0.07622078851193237</v>
       </c>
       <c r="K10">
-        <v>0.3859853364062928</v>
+        <v>1.198955999563708</v>
       </c>
       <c r="L10">
-        <v>0.5093307200364734</v>
+        <v>0.5957574542899522</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.604667426207982</v>
+        <v>0.6997768982004935</v>
       </c>
       <c r="O10">
-        <v>2.747493155325188</v>
+        <v>1.269231754490647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8294039500244423</v>
+        <v>1.817999876059446</v>
       </c>
       <c r="C11">
-        <v>0.2904132837395954</v>
+        <v>0.1110948542650076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2859789839355003</v>
+        <v>0.2083972980015858</v>
       </c>
       <c r="F11">
-        <v>1.908584701588723</v>
+        <v>1.302938512264447</v>
       </c>
       <c r="G11">
-        <v>0.6274131013666491</v>
+        <v>0.3469897567819515</v>
       </c>
       <c r="H11">
-        <v>0.7483983444640216</v>
+        <v>0.286429978916189</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0529788526689785</v>
+        <v>0.07979489437816767</v>
       </c>
       <c r="K11">
-        <v>0.4118129564347157</v>
+        <v>1.283889776632179</v>
       </c>
       <c r="L11">
-        <v>0.5186260866237689</v>
+        <v>0.6346544943802286</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.594604993209554</v>
+        <v>0.6767399875322937</v>
       </c>
       <c r="O11">
-        <v>2.738349292313217</v>
+        <v>1.284374588440386</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8425114099506743</v>
+        <v>1.864328513413881</v>
       </c>
       <c r="C12">
-        <v>0.2899319610645783</v>
+        <v>0.1102036686472374</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2866085904902249</v>
+        <v>0.212093128010018</v>
       </c>
       <c r="F12">
-        <v>1.910761171573057</v>
+        <v>1.322960116183765</v>
       </c>
       <c r="G12">
-        <v>0.6268985832736718</v>
+        <v>0.3499278127378744</v>
       </c>
       <c r="H12">
-        <v>0.7473334088479078</v>
+        <v>0.2863854191577815</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05342752552846974</v>
+        <v>0.0811485595660244</v>
       </c>
       <c r="K12">
-        <v>0.4215870292771342</v>
+        <v>1.316088626671245</v>
       </c>
       <c r="L12">
-        <v>0.5221730256412656</v>
+        <v>0.6494579474623237</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.590870071729842</v>
+        <v>0.6681908034976871</v>
       </c>
       <c r="O12">
-        <v>2.735084749000293</v>
+        <v>1.290594615232379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.839687526939116</v>
+        <v>1.854345923482441</v>
       </c>
       <c r="C13">
-        <v>0.290035188157165</v>
+        <v>0.1103949038567897</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2864722841773428</v>
+        <v>0.2112955797870555</v>
       </c>
       <c r="F13">
-        <v>1.910286489490119</v>
+        <v>1.318632830037998</v>
       </c>
       <c r="G13">
-        <v>0.6270070215901171</v>
+        <v>0.3492883660044441</v>
       </c>
       <c r="H13">
-        <v>0.7475609328624415</v>
+        <v>0.2863912070874477</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05333095313152825</v>
+        <v>0.08085700900499404</v>
       </c>
       <c r="K13">
-        <v>0.4194822966795186</v>
+        <v>1.309152273419784</v>
       </c>
       <c r="L13">
-        <v>0.521407932801182</v>
+        <v>0.6462663544123899</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.591671095995576</v>
+        <v>0.6700241509961877</v>
       </c>
       <c r="O13">
-        <v>2.735779020585625</v>
+        <v>1.289232927721486</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8304818761468198</v>
+        <v>1.821809180163541</v>
       </c>
       <c r="C14">
-        <v>0.2903734892699514</v>
+        <v>0.1110212219208613</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2860304623139314</v>
+        <v>0.2087006455148455</v>
       </c>
       <c r="F14">
-        <v>1.90876108380337</v>
+        <v>1.30457885336395</v>
       </c>
       <c r="G14">
-        <v>0.6273697026297782</v>
+        <v>0.3472284753601684</v>
       </c>
       <c r="H14">
-        <v>0.7483099073319863</v>
+        <v>0.2864246030901327</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05301579106322407</v>
+        <v>0.07990625507591176</v>
       </c>
       <c r="K14">
-        <v>0.4126172046170211</v>
+        <v>1.286538017706135</v>
       </c>
       <c r="L14">
-        <v>0.5189173560866607</v>
+        <v>0.6358708596883815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.594296205819028</v>
+        <v>0.6760331042782646</v>
       </c>
       <c r="O14">
-        <v>2.738076747951794</v>
+        <v>1.284876402975954</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8248459661049878</v>
+        <v>1.801893540381798</v>
       </c>
       <c r="C15">
-        <v>0.2905819806969241</v>
+        <v>0.1114068980663436</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2857619118900416</v>
+        <v>0.2071157722449328</v>
       </c>
       <c r="F15">
-        <v>1.90784412804355</v>
+        <v>1.296014704555745</v>
       </c>
       <c r="G15">
-        <v>0.6275988016861476</v>
+        <v>0.3459861307911822</v>
       </c>
       <c r="H15">
-        <v>0.7487740321617693</v>
+        <v>0.2864561362673967</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05282257763084175</v>
+        <v>0.07932392873462391</v>
       </c>
       <c r="K15">
-        <v>0.4084113015341018</v>
+        <v>1.272691118900127</v>
       </c>
       <c r="L15">
-        <v>0.5173953125489845</v>
+        <v>0.6295131655089818</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.595913993907374</v>
+        <v>0.6797366880112961</v>
       </c>
       <c r="O15">
-        <v>2.739509959841072</v>
+        <v>1.282272072761458</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7925926645926324</v>
+        <v>1.687969227665604</v>
       </c>
       <c r="C16">
-        <v>0.2917962769208717</v>
+        <v>0.1136481058295371</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2842548717455458</v>
+        <v>0.1981021530199882</v>
       </c>
       <c r="F16">
-        <v>1.902856336931762</v>
+        <v>1.247598507395907</v>
       </c>
       <c r="G16">
-        <v>0.6290181396700589</v>
+        <v>0.3391565774103498</v>
       </c>
       <c r="H16">
-        <v>0.7515158864126903</v>
+        <v>0.2868033529869507</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05171279470893353</v>
+        <v>0.07598722960920412</v>
       </c>
       <c r="K16">
-        <v>0.3842965927626949</v>
+        <v>1.193409977570951</v>
       </c>
       <c r="L16">
-        <v>0.5087270362835596</v>
+        <v>0.5932254113464666</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.605335595995463</v>
+        <v>0.7013064273413789</v>
       </c>
       <c r="O16">
-        <v>2.748118446514752</v>
+        <v>1.268308463436483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7728461121099315</v>
+        <v>1.618250585175474</v>
       </c>
       <c r="C17">
-        <v>0.2925586407884762</v>
+        <v>0.115050523431993</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2833588940916485</v>
+        <v>0.1926318880160807</v>
       </c>
       <c r="F17">
-        <v>1.900034906335961</v>
+        <v>1.21846805559629</v>
       </c>
       <c r="G17">
-        <v>0.629983850302537</v>
+        <v>0.3352175042087282</v>
       </c>
       <c r="H17">
-        <v>0.753271270741088</v>
+        <v>0.2871614633425068</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05102971369637999</v>
+        <v>0.07394039359300564</v>
       </c>
       <c r="K17">
-        <v>0.3694924268644115</v>
+        <v>1.144828906739406</v>
       </c>
       <c r="L17">
-        <v>0.5034576708196568</v>
+        <v>0.5710883564485698</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.611249935324924</v>
+        <v>0.7148417535644604</v>
       </c>
       <c r="O17">
-        <v>2.753752315789527</v>
+        <v>1.260575334851822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7615033230237316</v>
+        <v>1.578208205683296</v>
       </c>
       <c r="C18">
-        <v>0.2930035457948303</v>
+        <v>0.1158671881458835</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2828540666894241</v>
+        <v>0.1895065689187589</v>
       </c>
       <c r="F18">
-        <v>1.898499809700496</v>
+        <v>1.201915607483272</v>
       </c>
       <c r="G18">
-        <v>0.6305742082067454</v>
+        <v>0.3330408692380615</v>
       </c>
       <c r="H18">
-        <v>0.7543078948035316</v>
+        <v>0.2874194160142167</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05063599690537757</v>
+        <v>0.07276306817445999</v>
       </c>
       <c r="K18">
-        <v>0.3609737639060597</v>
+        <v>1.116904003837533</v>
       </c>
       <c r="L18">
-        <v>0.5004447194628767</v>
+        <v>0.5583992085031184</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.61470113554633</v>
+        <v>0.7227360314184104</v>
       </c>
       <c r="O18">
-        <v>2.757122469049534</v>
+        <v>1.25642421910328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7576654359591828</v>
+        <v>1.564660067530184</v>
       </c>
       <c r="C19">
-        <v>0.2931552851830972</v>
+        <v>0.1161454123279579</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2826849492645209</v>
+        <v>0.1884519314633764</v>
       </c>
       <c r="F19">
-        <v>1.897995126867073</v>
+        <v>1.196345351465567</v>
       </c>
       <c r="G19">
-        <v>0.6307800882336352</v>
+        <v>0.3323188995684845</v>
       </c>
       <c r="H19">
-        <v>0.7546635124349592</v>
+        <v>0.2875155563662872</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05050254973120261</v>
+        <v>0.0723644314474825</v>
       </c>
       <c r="K19">
-        <v>0.3580888735814654</v>
+        <v>1.107451892958835</v>
       </c>
       <c r="L19">
-        <v>0.4994276592311735</v>
+        <v>0.5541101500058829</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.615878142418573</v>
+        <v>0.7254274317912852</v>
       </c>
       <c r="O19">
-        <v>2.758285824338316</v>
+        <v>1.255068823205477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7749466299238748</v>
+        <v>1.625666154826916</v>
       </c>
       <c r="C20">
-        <v>0.2924768222438718</v>
+        <v>0.1149001937446923</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2834531847381498</v>
+        <v>0.19321201341387</v>
       </c>
       <c r="F20">
-        <v>1.900326176406878</v>
+        <v>1.221547908940281</v>
       </c>
       <c r="G20">
-        <v>0.6298774359807098</v>
+        <v>0.3356275438680782</v>
       </c>
       <c r="H20">
-        <v>0.7530816158674085</v>
+        <v>0.2871179325451294</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05110251452224901</v>
+        <v>0.07415828500492694</v>
       </c>
       <c r="K20">
-        <v>0.3710687425792685</v>
+        <v>1.149998558974147</v>
       </c>
       <c r="L20">
-        <v>0.504016758409449</v>
+        <v>0.5734403332173912</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.610615228207127</v>
+        <v>0.7133895523255731</v>
       </c>
       <c r="O20">
-        <v>2.753139157988159</v>
+        <v>1.261367616274185</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8331852134424196</v>
+        <v>1.831363053987218</v>
       </c>
       <c r="C21">
-        <v>0.290273856940904</v>
+        <v>0.1108368319030468</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2861598031491894</v>
+        <v>0.2094618777441042</v>
       </c>
       <c r="F21">
-        <v>1.909205506984819</v>
+        <v>1.308697568060211</v>
       </c>
       <c r="G21">
-        <v>0.6272617267686016</v>
+        <v>0.3478294544814773</v>
       </c>
       <c r="H21">
-        <v>0.7480887992246466</v>
+        <v>0.2864124774722541</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05310839675525614</v>
+        <v>0.080185506162195</v>
       </c>
       <c r="K21">
-        <v>0.4146338238234364</v>
+        <v>1.293179317752845</v>
       </c>
       <c r="L21">
-        <v>0.5196481685273682</v>
+        <v>0.6389222036155076</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.593523098356322</v>
+        <v>0.6742633381217829</v>
       </c>
       <c r="O21">
-        <v>2.737396475809646</v>
+        <v>1.286142592371448</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8713743192980701</v>
+        <v>1.966414330135819</v>
       </c>
       <c r="C22">
-        <v>0.2888910526964752</v>
+        <v>0.1082722045554627</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2880218209114318</v>
+        <v>0.2202858709941751</v>
       </c>
       <c r="F22">
-        <v>1.915787676560171</v>
+        <v>1.367618469493323</v>
       </c>
       <c r="G22">
-        <v>0.625863108603852</v>
+        <v>0.3566638900165486</v>
       </c>
       <c r="H22">
-        <v>0.7450654935597356</v>
+        <v>0.2864435360621371</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05441187246029244</v>
+        <v>0.08412611118517077</v>
       </c>
       <c r="K22">
-        <v>0.4430692107370646</v>
+        <v>1.386972017839639</v>
       </c>
       <c r="L22">
-        <v>0.5300213699196377</v>
+        <v>0.6821531504934626</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.582792492669604</v>
+        <v>0.6497121471385299</v>
       </c>
       <c r="O22">
-        <v>2.728261999518764</v>
+        <v>1.305180870495462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.850980756390328</v>
+        <v>1.8942734522781</v>
       </c>
       <c r="C23">
-        <v>0.2896238766456829</v>
+        <v>0.1096325829455473</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2870195362934211</v>
+        <v>0.2144894310155081</v>
       </c>
       <c r="F23">
-        <v>1.912203470113951</v>
+        <v>1.335983617148386</v>
       </c>
       <c r="G23">
-        <v>0.6265811273874675</v>
+        <v>0.3518667479996225</v>
       </c>
       <c r="H23">
-        <v>0.7466571676208389</v>
+        <v>0.2863804619345558</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05371687374413625</v>
+        <v>0.08202271065495381</v>
       </c>
       <c r="K23">
-        <v>0.4278962796825283</v>
+        <v>1.336890380519236</v>
       </c>
       <c r="L23">
-        <v>0.5244707015349377</v>
+        <v>0.6590378183560119</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.588479353439929</v>
+        <v>0.662719820656239</v>
       </c>
       <c r="O23">
-        <v>2.733031658603977</v>
+        <v>1.294749117081665</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7739969553310004</v>
+        <v>1.622313452917894</v>
       </c>
       <c r="C24">
-        <v>0.2925137918109408</v>
+        <v>0.1149681254331143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2834105239035765</v>
+        <v>0.1929496778223836</v>
       </c>
       <c r="F24">
-        <v>1.900194222246512</v>
+        <v>1.220154901477258</v>
       </c>
       <c r="G24">
-        <v>0.62992543638196</v>
+        <v>0.3354418915954227</v>
       </c>
       <c r="H24">
-        <v>0.7531672733878381</v>
+        <v>0.2871374509491531</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05106960439641739</v>
+        <v>0.07405977809926867</v>
       </c>
       <c r="K24">
-        <v>0.3703561137205043</v>
+        <v>1.147661344253493</v>
       </c>
       <c r="L24">
-        <v>0.5037639435674635</v>
+        <v>0.572376887483145</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.610902020532876</v>
+        <v>0.7140457421879027</v>
       </c>
       <c r="O24">
-        <v>2.753415958047739</v>
+        <v>1.261008509933959</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6915305162949323</v>
+        <v>1.331123834040881</v>
       </c>
       <c r="C25">
-        <v>0.2958763316969626</v>
+        <v>0.1211059863920676</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.279919941963378</v>
+        <v>0.170511100892341</v>
       </c>
       <c r="F25">
-        <v>1.890594958076107</v>
+        <v>1.102878805895358</v>
       </c>
       <c r="G25">
-        <v>0.6348673164085739</v>
+        <v>0.3210936241632183</v>
       </c>
       <c r="H25">
-        <v>0.7612209761584907</v>
+        <v>0.2899261104900361</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04818255231369406</v>
+        <v>0.06546798552178856</v>
       </c>
       <c r="K25">
-        <v>0.3081504693129489</v>
+        <v>0.9441916636278052</v>
       </c>
       <c r="L25">
-        <v>0.4821116736014375</v>
+        <v>0.4805375714983313</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.636978373174564</v>
+        <v>0.7735558993749514</v>
       </c>
       <c r="O25">
-        <v>2.780362838313096</v>
+        <v>1.23585505646912</v>
       </c>
     </row>
   </sheetData>
